--- a/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
+++ b/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365"/>
+    <workbookView windowWidth="21000" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>别名</t>
   </si>
@@ -125,9 +125,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -154,7 +154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,19 +176,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -205,18 +205,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,6 +305,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,6 +365,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,13 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,133 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,16 +631,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,18 +652,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,82 +676,82 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
+++ b/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8895"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>选择停车场下拉框</t>
   </si>
   <si>
-    <t>//span[text()='请选择停车场']</t>
+    <t>//form[@class='form-inline']/span[1]//i</t>
   </si>
   <si>
     <t>选择停车场</t>
@@ -125,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -154,6 +154,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,7 +168,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,53 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -231,13 +261,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,14 +275,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -267,24 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,73 +317,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,19 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,19 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,30 +479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,18 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +510,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +553,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -562,27 +582,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -619,145 +619,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
+++ b/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
@@ -102,10 +102,10 @@
     <t>//h3[text()='详情列表']/../following-sibling::*[1]</t>
   </si>
   <si>
-    <t>确定-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//button[contains(text(),'确定')]</t>
+    <t>关闭-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//button[contains(text(),'关 闭')]</t>
   </si>
   <si>
     <t>操作成功-提示</t>
@@ -117,7 +117,7 @@
     <t>记录列表</t>
   </si>
   <si>
-    <t>//div[@id='tmpChargeTable']</t>
+    <t>//div[contains(@id,'table-cache')]</t>
   </si>
 </sst>
 </file>
@@ -125,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,6 +153,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -160,6 +176,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -168,75 +208,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,41 +246,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,56 +510,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,15 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,6 +552,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
+++ b/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
@@ -87,7 +87,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认')or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>详情</t>
@@ -125,8 +125,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
+++ b/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认') or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>详情</t>
@@ -125,8 +125,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -155,7 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,30 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -214,9 +190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,11 +205,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,28 +244,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +268,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,6 +305,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,60 +479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,96 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,17 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,21 +534,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,11 +555,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,25 +572,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,145 +619,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
+++ b/res/page/统计分析/报表管理/TemporaryReportPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="20925" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>别名</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>//div[contains(@id,'table-cache')]</t>
+  </si>
+  <si>
+    <t>时间维度</t>
+  </si>
+  <si>
+    <t>//div[text()='时间维度']/following-sibling::*[1]//input</t>
   </si>
 </sst>
 </file>
@@ -125,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -147,6 +153,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -154,8 +191,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,69 +236,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,35 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -282,9 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,17 +520,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +545,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,37 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,137 +637,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +784,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1308,7 +1317,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1316,6 +1325,17 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
